--- a/SchedulingData/dynamic13/pso/scheduling1_12.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_12.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>62.94</v>
+        <v>52.3</v>
       </c>
       <c r="E2" t="n">
-        <v>26.876</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="3">
@@ -485,74 +485,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>66.26000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="E3" t="n">
-        <v>26.524</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>71.90000000000001</v>
+        <v>55.2</v>
       </c>
       <c r="E4" t="n">
-        <v>26.46</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>52.3</v>
       </c>
       <c r="D5" t="n">
-        <v>55.78</v>
+        <v>100.3</v>
       </c>
       <c r="E5" t="n">
-        <v>26.592</v>
+        <v>24.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>49.8</v>
+        <v>52.1</v>
       </c>
       <c r="E6" t="n">
-        <v>26.22</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="7">
@@ -561,55 +561,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>62.94</v>
+        <v>55.2</v>
       </c>
       <c r="D7" t="n">
-        <v>112.84</v>
+        <v>132.9</v>
       </c>
       <c r="E7" t="n">
-        <v>24.016</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>112.84</v>
+        <v>100.3</v>
       </c>
       <c r="D8" t="n">
-        <v>187.78</v>
+        <v>149.48</v>
       </c>
       <c r="E8" t="n">
-        <v>20.152</v>
+        <v>21.952</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>55.78</v>
+        <v>74.8</v>
       </c>
       <c r="D9" t="n">
-        <v>112.38</v>
+        <v>118.16</v>
       </c>
       <c r="E9" t="n">
-        <v>23.552</v>
+        <v>22.464</v>
       </c>
     </row>
     <row r="10">
@@ -618,226 +618,226 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>66.26000000000001</v>
+        <v>118.16</v>
       </c>
       <c r="D10" t="n">
-        <v>122.72</v>
+        <v>164.82</v>
       </c>
       <c r="E10" t="n">
-        <v>22.988</v>
+        <v>18.928</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49.8</v>
+        <v>132.9</v>
       </c>
       <c r="D11" t="n">
-        <v>99.08</v>
+        <v>190.14</v>
       </c>
       <c r="E11" t="n">
-        <v>23.412</v>
+        <v>19.856</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>122.72</v>
+        <v>149.48</v>
       </c>
       <c r="D12" t="n">
-        <v>185.18</v>
+        <v>209.28</v>
       </c>
       <c r="E12" t="n">
-        <v>19.852</v>
+        <v>18.572</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>42.2</v>
+        <v>85.14</v>
       </c>
       <c r="E13" t="n">
-        <v>26.48</v>
+        <v>26.136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>42.2</v>
+        <v>85.14</v>
       </c>
       <c r="D14" t="n">
-        <v>101.9</v>
+        <v>137.34</v>
       </c>
       <c r="E14" t="n">
-        <v>23.6</v>
+        <v>22.536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>71.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>111.36</v>
+        <v>62.6</v>
       </c>
       <c r="E15" t="n">
-        <v>23.644</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>101.9</v>
+        <v>164.82</v>
       </c>
       <c r="D16" t="n">
-        <v>169.7</v>
+        <v>222.88</v>
       </c>
       <c r="E16" t="n">
-        <v>19.44</v>
+        <v>15.232</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>187.78</v>
+        <v>52.1</v>
       </c>
       <c r="D17" t="n">
-        <v>247.72</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>16.288</v>
+        <v>22.004</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>111.36</v>
+        <v>62.6</v>
       </c>
       <c r="D18" t="n">
-        <v>154.34</v>
+        <v>112.98</v>
       </c>
       <c r="E18" t="n">
-        <v>20.476</v>
+        <v>22.512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>99.08</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>152.2</v>
+        <v>172.36</v>
       </c>
       <c r="E19" t="n">
-        <v>19.72</v>
+        <v>18.224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>247.72</v>
+        <v>172.36</v>
       </c>
       <c r="D20" t="n">
-        <v>287.92</v>
+        <v>248.32</v>
       </c>
       <c r="E20" t="n">
-        <v>12.908</v>
+        <v>15.728</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>185.18</v>
+        <v>137.34</v>
       </c>
       <c r="D21" t="n">
-        <v>241.74</v>
+        <v>205.46</v>
       </c>
       <c r="E21" t="n">
-        <v>16.316</v>
+        <v>18.324</v>
       </c>
     </row>
     <row r="22">
@@ -846,93 +846,93 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>241.74</v>
+        <v>222.88</v>
       </c>
       <c r="D22" t="n">
-        <v>322.74</v>
+        <v>282.78</v>
       </c>
       <c r="E22" t="n">
-        <v>12.296</v>
+        <v>12.372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>112.38</v>
+        <v>190.14</v>
       </c>
       <c r="D23" t="n">
-        <v>162.9</v>
+        <v>241.74</v>
       </c>
       <c r="E23" t="n">
-        <v>20.64</v>
+        <v>16.316</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>287.92</v>
+        <v>209.28</v>
       </c>
       <c r="D24" t="n">
-        <v>347.72</v>
+        <v>269.18</v>
       </c>
       <c r="E24" t="n">
-        <v>9.068</v>
+        <v>13.712</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>154.34</v>
+        <v>205.46</v>
       </c>
       <c r="D25" t="n">
-        <v>217.4</v>
+        <v>251.06</v>
       </c>
       <c r="E25" t="n">
-        <v>16.78</v>
+        <v>15.884</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>217.4</v>
+        <v>112.98</v>
       </c>
       <c r="D26" t="n">
-        <v>279.38</v>
+        <v>166.98</v>
       </c>
       <c r="E26" t="n">
-        <v>13.712</v>
+        <v>19.712</v>
       </c>
     </row>
     <row r="27">
@@ -941,150 +941,150 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>162.9</v>
+        <v>166.98</v>
       </c>
       <c r="D27" t="n">
-        <v>241.22</v>
+        <v>236.46</v>
       </c>
       <c r="E27" t="n">
-        <v>16.428</v>
+        <v>16.384</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>169.7</v>
+        <v>251.06</v>
       </c>
       <c r="D28" t="n">
-        <v>234.7</v>
+        <v>302.56</v>
       </c>
       <c r="E28" t="n">
-        <v>14.58</v>
+        <v>12.364</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>234.7</v>
+        <v>302.56</v>
       </c>
       <c r="D29" t="n">
-        <v>284.18</v>
+        <v>340.68</v>
       </c>
       <c r="E29" t="n">
-        <v>11.252</v>
+        <v>9.192</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>152.2</v>
+        <v>248.32</v>
       </c>
       <c r="D30" t="n">
-        <v>227</v>
+        <v>289.26</v>
       </c>
       <c r="E30" t="n">
-        <v>16.36</v>
+        <v>12.764</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>227</v>
+        <v>269.18</v>
       </c>
       <c r="D31" t="n">
-        <v>297.3</v>
+        <v>339.08</v>
       </c>
       <c r="E31" t="n">
-        <v>13.92</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>297.3</v>
+        <v>282.78</v>
       </c>
       <c r="D32" t="n">
-        <v>340.32</v>
+        <v>331</v>
       </c>
       <c r="E32" t="n">
-        <v>10.748</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>241.22</v>
+        <v>241.74</v>
       </c>
       <c r="D33" t="n">
-        <v>293.32</v>
+        <v>298.2</v>
       </c>
       <c r="E33" t="n">
-        <v>12.348</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>293.32</v>
+        <v>340.68</v>
       </c>
       <c r="D34" t="n">
-        <v>334.48</v>
+        <v>415.12</v>
       </c>
       <c r="E34" t="n">
-        <v>9.852</v>
+        <v>5.328</v>
       </c>
     </row>
     <row r="35">
@@ -1093,55 +1093,55 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>347.72</v>
+        <v>298.2</v>
       </c>
       <c r="D35" t="n">
-        <v>422.42</v>
+        <v>352.36</v>
       </c>
       <c r="E35" t="n">
-        <v>6.208</v>
+        <v>9.964</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>334.48</v>
+        <v>331</v>
       </c>
       <c r="D36" t="n">
-        <v>375.42</v>
+        <v>388.78</v>
       </c>
       <c r="E36" t="n">
-        <v>6.888</v>
+        <v>5.512</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>375.42</v>
+        <v>352.36</v>
       </c>
       <c r="D37" t="n">
-        <v>429.42</v>
+        <v>405.02</v>
       </c>
       <c r="E37" t="n">
-        <v>4.088</v>
+        <v>6.828</v>
       </c>
     </row>
     <row r="38">
@@ -1150,36 +1150,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>284.18</v>
+        <v>339.08</v>
       </c>
       <c r="D38" t="n">
-        <v>351.38</v>
+        <v>390.14</v>
       </c>
       <c r="E38" t="n">
-        <v>7.652</v>
+        <v>6.876</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>340.32</v>
+        <v>236.46</v>
       </c>
       <c r="D39" t="n">
-        <v>423.08</v>
+        <v>296.58</v>
       </c>
       <c r="E39" t="n">
-        <v>7.052</v>
+        <v>13.472</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>351.38</v>
+        <v>390.14</v>
       </c>
       <c r="D40" t="n">
-        <v>426.94</v>
+        <v>447.22</v>
       </c>
       <c r="E40" t="n">
-        <v>3.676</v>
+        <v>3.808</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>279.38</v>
+        <v>405.02</v>
       </c>
       <c r="D41" t="n">
-        <v>317.78</v>
+        <v>465.22</v>
       </c>
       <c r="E41" t="n">
-        <v>11.512</v>
+        <v>3.948</v>
       </c>
     </row>
   </sheetData>
